--- a/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
+++ b/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ESPE\Primer Semestre\Fund. Ing\NRC1951_G7_FUN_ING_SW\DOCUMENTACIÓN_G#7\1.ELICITACIÓN\1.6 BACKLOG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ESPE\Primer Semestre\Fund. Ing\NRC1951_G7_FUN_ING_SW\BIBLIOTECA DE TRABAJO\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -3008,7 +3008,9 @@
   </sheetPr>
   <dimension ref="A1:I997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3198,7 +3200,7 @@
       <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -4323,7 +4325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
+++ b/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>t</t>
   </si>
@@ -237,12 +237,6 @@
     <t>Registrar los pagos realizados por los condominmos</t>
   </si>
   <si>
-    <t>Menu para ingresar datos del condomino y los pagos que este haya realizado</t>
-  </si>
-  <si>
-    <t>Validaciónes para que solo se acepte letras en nombres y números en los pagos</t>
-  </si>
-  <si>
     <t>Mostrar el registro de pagos en forma de matriz (una para alquiler de espacios y otra para alicuotas)</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
     <t>Generar bloc de notas con el reporte / factura</t>
   </si>
   <si>
-    <t>Los requisitos 1 y 2 fueron culminados en el primer sprint</t>
-  </si>
-  <si>
     <t>Generar reportes / facturas</t>
   </si>
   <si>
@@ -286,13 +277,31 @@
   </si>
   <si>
     <t>Mensaje según el caso "Reiniciando el ingreso de datos"; "Datos guardados en 'Reporte_Pagos.txt"</t>
+  </si>
+  <si>
+    <t>El requisito 1 fue culminado en el primer sprint</t>
+  </si>
+  <si>
+    <t>REQ001-4</t>
+  </si>
+  <si>
+    <t>REQ001-5</t>
+  </si>
+  <si>
+    <t>Mensaje de Error en caso de ingresar una contraseña inferior a 8 dígitos</t>
+  </si>
+  <si>
+    <t>Menú para ingresar nombre del condomino y los pagos que este haya realizado</t>
+  </si>
+  <si>
+    <t>Validaciónes para que solo se acepte letras en nombre y números en los pagos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -370,6 +379,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -540,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,11 +622,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -755,75 +844,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -1588,51 +1608,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B9:I14" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="B9:I14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B2:I9" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="B2:I9"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" name="Tema" dataDxfId="10"/>
+    <tableColumn id="2" name="Tema"/>
     <tableColumn id="3" name="Como un.."/>
     <tableColumn id="4" name="Necesito"/>
     <tableColumn id="5" name="así podre..."/>
-    <tableColumn id="6" name="notas"/>
-    <tableColumn id="7" name="Prioridad"/>
-    <tableColumn id="8" name="Status" dataDxfId="9"/>
+    <tableColumn id="6" name="notas" dataDxfId="10"/>
+    <tableColumn id="7" name="Prioridad" dataDxfId="9"/>
+    <tableColumn id="8" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B2:I8" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B2:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla38" displayName="Tabla38" ref="A10:H16" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A10:H16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Tema"/>
+    <tableColumn id="2" name="Tema" dataDxfId="6"/>
     <tableColumn id="3" name="Como un.."/>
     <tableColumn id="4" name="Necesito"/>
     <tableColumn id="5" name="así podre..."/>
-    <tableColumn id="6" name="notas" dataDxfId="6"/>
-    <tableColumn id="7" name="Prioridad" dataDxfId="5"/>
-    <tableColumn id="8" name="Status"/>
+    <tableColumn id="6" name="notas"/>
+    <tableColumn id="7" name="Prioridad"/>
+    <tableColumn id="8" name="Status" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla38" displayName="Tabla38" ref="A2:H8" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:H7" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:H7"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" name="Tema" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" name="Tema" dataDxfId="1"/>
     <tableColumn id="3" name="Como un.."/>
     <tableColumn id="4" name="Necesito"/>
     <tableColumn id="5" name="así podre..."/>
     <tableColumn id="6" name="notas"/>
     <tableColumn id="7" name="Prioridad"/>
-    <tableColumn id="8" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1641,7 +1661,7 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="I4:I14" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(D4:H4)</calculatedColumnFormula>
       <totalsRowFormula>SUM(D14:H14)</totalsRowFormula>
     </tableColumn>
@@ -1951,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>55</v>
@@ -3006,10 +3026,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I997"/>
+  <dimension ref="A1:I998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3024,7 +3044,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3121,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -3134,173 +3154,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="17" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="18" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="19" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="20" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="26" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="27" spans="2:9" ht="15.75" customHeight="1"/>
@@ -3309,16 +3245,7 @@
     <row r="30" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="7"/>
-    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="34" spans="2:9" ht="15.75" customHeight="1">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3339,18 +3266,27 @@
       <c r="H35" s="3"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="7"/>
+    </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="41" spans="2:9" ht="15.75" customHeight="1"/>
@@ -4310,23 +4246,23 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4339,11 +4275,17 @@
     <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" s="16" customFormat="1">
       <c r="A1" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="37"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -4372,119 +4314,232 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
+      <c r="A3" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
       <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16"/>
       <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="16"/>
       <c r="H6" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="16" customFormat="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="16" customFormat="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="B15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="8">
+      <c r="G15" s="16"/>
+      <c r="H15" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="8">
+      <c r="G16" s="16"/>
+      <c r="H16" s="8">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
+++ b/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
@@ -619,16 +619,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -697,36 +727,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1642,17 +1642,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:H7" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:H7" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:H7"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" name="Tema" dataDxfId="1"/>
+    <tableColumn id="1" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" name="Tema" dataDxfId="2"/>
     <tableColumn id="3" name="Como un.."/>
     <tableColumn id="4" name="Necesito"/>
     <tableColumn id="5" name="así podre..."/>
     <tableColumn id="6" name="notas"/>
     <tableColumn id="7" name="Prioridad"/>
-    <tableColumn id="8" name="Status" dataDxfId="0"/>
+    <tableColumn id="8" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1661,7 +1661,7 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="I4:I14" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(D4:H4)</calculatedColumnFormula>
       <totalsRowFormula>SUM(D14:H14)</totalsRowFormula>
     </tableColumn>
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -3164,8 +3164,8 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -4262,7 +4262,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4913,68 +4913,68 @@
     <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="39" spans="2:7" ht="15.75" customHeight="1"/>

--- a/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
+++ b/BIBLIOTECA DE TRABAJO/Documentación/BACKLOG _V7.0.xlsx
@@ -249,9 +249,6 @@
     <t>Mensaje de Error en caso de 3 intentos incorrectos "Usted falló más de 3 veces"</t>
   </si>
   <si>
-    <t>Confirmacion de Login al momento de ingresar  "Acceso concedido. Bienvenido, Tesorero"</t>
-  </si>
-  <si>
     <t>En el Primer Sprint se realizarán los dos primeros requisitos.</t>
   </si>
   <si>
@@ -291,10 +288,13 @@
     <t>Mensaje de Error en caso de ingresar una contraseña inferior a 8 dígitos</t>
   </si>
   <si>
-    <t>Menú para ingresar nombre del condomino y los pagos que este haya realizado</t>
-  </si>
-  <si>
-    <t>Validaciónes para que solo se acepte letras en nombre y números en los pagos</t>
+    <t>Confirmación de Login al momento de ingresar  "Acceso concedido. Bienvenido, Tesorero"</t>
+  </si>
+  <si>
+    <t>Menú para ingresar nombre del condómino y los pagos que este haya realizado</t>
+  </si>
+  <si>
+    <t>Validaciones para que solo se acepte letras en nombre y números en los pagos</t>
   </si>
 </sst>
 </file>
@@ -3029,7 +3029,7 @@
   <dimension ref="A1:I998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3044,7 +3044,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3141,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>68</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>69</v>
@@ -4262,7 +4262,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4277,7 +4277,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="16" customFormat="1">
       <c r="A1" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1"/>
@@ -4432,13 +4432,13 @@
         <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>46</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4486,7 +4486,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -4504,7 +4504,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4522,7 +4522,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
